--- a/biology/Botanique/Forêt_de_Kimboza/Forêt_de_Kimboza.xlsx
+++ b/biology/Botanique/Forêt_de_Kimboza/Forêt_de_Kimboza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Kimboza</t>
+          <t>Forêt_de_Kimboza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Forêt de Kimboza est une des plus anciennes forêts d'Afrique. Elle est située à l'est de la Tanzanie. Son écosystème n'a pas été dérangé par des changements climatiques depuis 25 millions d'années[1].
+La Forêt de Kimboza est une des plus anciennes forêts d'Afrique. Elle est située à l'est de la Tanzanie. Son écosystème n'a pas été dérangé par des changements climatiques depuis 25 millions d'années.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Kimboza</t>
+          <t>Forêt_de_Kimboza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Kimboza est le seul endroit au monde où l'on peut trouver le gecko Lygodactylus williamsi[2]. La forêt compte également des varans du Nil (Varanus niloticus) et des geckos à tête plate (Hemidactylus platycephalus). Cette forêt possède également un grand nombre de serpents parmi lesquels se trouvent Thelotornis mossambicanus. La forêt compte également un grand nombre de caméléons[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Kimboza est le seul endroit au monde où l'on peut trouver le gecko Lygodactylus williamsi. La forêt compte également des varans du Nil (Varanus niloticus) et des geckos à tête plate (Hemidactylus platycephalus). Cette forêt possède également un grand nombre de serpents parmi lesquels se trouvent Thelotornis mossambicanus. La forêt compte également un grand nombre de caméléons.
 </t>
         </is>
       </c>
